--- a/testData/results/base64_arm_base64_x86_result.xlsx
+++ b/testData/results/base64_arm_base64_x86_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,70 +451,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sub_40219c</t>
+          <t>sub_403158</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64</v>
+        <v>3268</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sub_4029d9</t>
+          <t>sub_403da0</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>64</v>
+        <v>4627</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6837606837606838</v>
+        <v>0.517733845904834</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sub_403158</t>
+          <t>sub_401700</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3268</v>
+        <v>20</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sub_403da0</t>
+          <t>sub_406c24</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4627</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6740439132074039</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mbrtowc</t>
+          <t>sub_401714</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>mbrtowc</t>
+          <t>sub_406c05</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>memcpy</t>
+          <t>mbrtowc</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -522,20 +522,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>memcpy</t>
+          <t>mbrtowc</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>memmove</t>
+          <t>memcpy</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -543,20 +543,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>memmove</t>
+          <t>memcpy</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>_exit</t>
+          <t>memmove</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -564,20 +564,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>_exit</t>
+          <t>memmove</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>fwrite_unlocked</t>
+          <t>_exit</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -585,20 +585,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>fwrite_unlocked</t>
+          <t>_exit</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>strlen</t>
+          <t>fwrite_unlocked</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -606,20 +606,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>strlen</t>
+          <t>fwrite_unlocked</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>11</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>strlen</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -627,20 +627,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>strlen</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>exit</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -648,20 +648,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>exit</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>11</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>__cxa_finalize</t>
+          <t>error</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -669,20 +669,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>__cxa_finalize</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>__cxa_atexit</t>
+          <t>__cxa_finalize</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -690,20 +690,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>__cxa_atexit</t>
+          <t>__cxa_finalize</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>lseek</t>
+          <t>__cxa_atexit</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -711,20 +711,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>lseek</t>
+          <t>__cxa_atexit</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>__fpending</t>
+          <t>lseek</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -732,20 +732,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>__fpending</t>
+          <t>lseek</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fileno</t>
+          <t>__fpending</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -753,20 +753,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>fileno</t>
+          <t>__fpending</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>11</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>fclose</t>
+          <t>fileno</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -774,20 +774,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>fclose</t>
+          <t>fileno</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>11</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>nl_langinfo</t>
+          <t>fclose</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -795,20 +795,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>nl_langinfo</t>
+          <t>fclose</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>fopen</t>
+          <t>nl_langinfo</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -816,20 +816,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>fopen</t>
+          <t>nl_langinfo</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>malloc</t>
+          <t>fopen</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -837,20 +837,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>malloc</t>
+          <t>fopen</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>strncmp</t>
+          <t>malloc</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -858,20 +858,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>strncmp</t>
+          <t>malloc</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>11</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bindtextdomain</t>
+          <t>strncmp</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -879,83 +879,83 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>bindtextdomain</t>
+          <t>strncmp</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>11</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>init</t>
+          <t>bindtextdomain</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>init</t>
+          <t>bindtextdomain</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7120710659328917</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>fini</t>
+          <t>init</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>fini</t>
+          <t>init</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7142857142857144</v>
+        <v>0.8000541279313658</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>__printf_chk</t>
+          <t>main</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16</v>
+        <v>1704</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>__printf_chk</t>
+          <t>main</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>700</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.5912971646305381</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>memset</t>
+          <t>__printf_chk</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -963,20 +963,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>memset</t>
+          <t>__printf_chk</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>11</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>__strtoul_internal</t>
+          <t>memset</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -984,20 +984,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>__strtoul_internal</t>
+          <t>memset</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>11</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>calloc</t>
+          <t>__strtoul_internal</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1005,20 +1005,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>calloc</t>
+          <t>__strtoul_internal</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>11</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>realloc</t>
+          <t>calloc</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1026,20 +1026,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>realloc</t>
+          <t>calloc</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>11</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>__stack_chk_fail</t>
+          <t>realloc</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1047,20 +1047,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>__stack_chk_fail</t>
+          <t>realloc</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>11</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>strrchr</t>
+          <t>__stack_chk_fail</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1068,20 +1068,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>strrchr</t>
+          <t>__stack_chk_fail</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>11</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>abort</t>
+          <t>strrchr</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1089,20 +1089,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>abort</t>
+          <t>strrchr</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>11</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>posix_fadvise</t>
+          <t>abort</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1110,20 +1110,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>posix_fadvise</t>
+          <t>abort</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>11</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>mbsinit</t>
+          <t>posix_fadvise</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1131,20 +1131,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>mbsinit</t>
+          <t>posix_fadvise</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>11</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>__overflow</t>
+          <t>mbsinit</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1152,20 +1152,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>__overflow</t>
+          <t>mbsinit</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>11</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>fread_unlocked</t>
+          <t>__overflow</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1173,20 +1173,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>fread_unlocked</t>
+          <t>__overflow</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>11</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>memcmp</t>
+          <t>fread_unlocked</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1194,20 +1194,20 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>memcmp</t>
+          <t>fread_unlocked</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>11</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>textdomain</t>
+          <t>memcmp</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1215,20 +1215,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>textdomain</t>
+          <t>memcmp</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>11</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>getopt_long</t>
+          <t>textdomain</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1236,20 +1236,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>getopt_long</t>
+          <t>textdomain</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>11</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>__fprintf_chk</t>
+          <t>getopt_long</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1257,20 +1257,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>__fprintf_chk</t>
+          <t>getopt_long</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>11</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>strcmp</t>
+          <t>__fprintf_chk</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1278,20 +1278,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>strcmp</t>
+          <t>__fprintf_chk</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>11</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>__ctype_b_loc</t>
+          <t>strcmp</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1299,20 +1299,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>__ctype_b_loc</t>
+          <t>strcmp</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>11</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>fseeko</t>
+          <t>__ctype_b_loc</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1320,20 +1320,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>fseeko</t>
+          <t>__ctype_b_loc</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>11</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>fseeko</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1341,20 +1341,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>fseeko</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>11</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>__ctype_get_mb_cur_max</t>
+          <t>free</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1362,20 +1362,20 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>__ctype_get_mb_cur_max</t>
+          <t>free</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>11</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>strchr</t>
+          <t>__ctype_get_mb_cur_max</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1383,20 +1383,20 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>strchr</t>
+          <t>__ctype_get_mb_cur_max</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>11</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>fwrite</t>
+          <t>strchr</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1404,20 +1404,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>fwrite</t>
+          <t>strchr</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>11</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>fflush</t>
+          <t>fwrite</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1425,20 +1425,20 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>fflush</t>
+          <t>fwrite</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v>11</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>memchr</t>
+          <t>fflush</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1446,20 +1446,20 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>memchr</t>
+          <t>fflush</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>11</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>dcgettext</t>
+          <t>memchr</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1467,20 +1467,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>dcgettext</t>
+          <t>memchr</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>11</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>fputs_unlocked</t>
+          <t>dcgettext</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1488,20 +1488,20 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>fputs_unlocked</t>
+          <t>dcgettext</t>
         </is>
       </c>
       <c r="D51" t="n">
         <v>11</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>__freading</t>
+          <t>fputs_unlocked</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1509,20 +1509,20 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>__freading</t>
+          <t>fputs_unlocked</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>11</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>iswprint</t>
+          <t>__freading</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1530,20 +1530,20 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>iswprint</t>
+          <t>__freading</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>11</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>__assert_fail</t>
+          <t>iswprint</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1551,20 +1551,20 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>__assert_fail</t>
+          <t>iswprint</t>
         </is>
       </c>
       <c r="D54" t="n">
         <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>__errno_location</t>
+          <t>__assert_fail</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1572,20 +1572,20 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>__errno_location</t>
+          <t>__assert_fail</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>11</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>setlocale</t>
+          <t>__errno_location</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1593,209 +1593,209 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>setlocale</t>
+          <t>__errno_location</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>11</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>_start</t>
+          <t>setlocale</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>_start</t>
+          <t>setlocale</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7200000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>sub_402bf4</t>
+          <t>sub_402ec8</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>sub_40639c</t>
+          <t>sub_403c00</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8</v>
+        <v>0.570392117242385</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>sub_402c7c</t>
+          <t>sub_405e10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>sub_4054c3</t>
+          <t>sub_406c10</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8</v>
+        <v>0.6888888888888889</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sub_402c9c</t>
+          <t>sub_402230</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>212</v>
+        <v>868</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>sub_403a30</t>
+          <t>sub_403010</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>184</v>
+        <v>968</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6233354959217029</v>
+        <v>0.55857952244019</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sub_402d2c</t>
+          <t>sub_402e90</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>sub_4039a4</t>
+          <t>sub_403bd0</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8</v>
+        <v>0.641540404040404</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sub_402fc0</t>
+          <t>sub_4059f8</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>sub_402000</t>
+          <t>sub_4068a0</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E62" t="n">
-        <v>0.566951566951567</v>
+        <v>0.6277850057937955</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>sub_405b80</t>
+          <t>sub_402a20</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>168</v>
+        <v>624</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>sub_406b00</t>
+          <t>sub_403790</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>75</v>
+        <v>634</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5959965769989211</v>
+        <v>0.6765355765921477</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sub_4052e0</t>
+          <t>sub_401c3c</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>sub_406250</t>
+          <t>sub_402a60</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5706349206349206</v>
+        <v>0.6857142857142857</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sub_404450</t>
+          <t>_start</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>sub_4051d0</t>
+          <t>_start</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5777777777777778</v>
+        <v>0.7891156462585035</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sub_40448c</t>
+          <t>sub_4021dc</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1803,221 +1803,221 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>sub_406045</t>
+          <t>sub_402a20</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8</v>
+        <v>0.6541093474426808</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>sub_4044d8</t>
+          <t>sub_40222c</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>sub_4051f0</t>
+          <t>sub_405e23</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5866666666666667</v>
+        <v>0.6756818181818183</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>sub_40453c</t>
+          <t>sub_4024c4</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>sub_4052b0</t>
+          <t>sub_403d61</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="E68" t="n">
-        <v>0.526338067390699</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>sub_4046d0</t>
+          <t>sub_4025c4</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>sub_405740</t>
+          <t>sub_403553</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6301886792452831</v>
+        <v>0.7544444444444445</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>sub_404788</t>
+          <t>sub_40272c</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>sub_405950</t>
+          <t>sub_4036d0</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6580645161290323</v>
+        <v>0.6265505533654354</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>sub_4048d8</t>
+          <t>sub_402804</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>sub_405680</t>
+          <t>sub_404e2e</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6192513368983957</v>
+        <v>0.7011111111111111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>sub_4049a4</t>
+          <t>sub_40296c</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>sub_4058c8</t>
+          <t>sub_405c84</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8</v>
+        <v>0.6317460317460318</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>sub_4049b0</t>
+          <t>sub_40298c</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>sub_4058d0</t>
+          <t>sub_40644b</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sub_404b10</t>
+          <t>sub_4029a4</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>sub_4054f0</t>
+          <t>sub_405af5</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6555555555555556</v>
+        <v>0.6808391608391609</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>sub_404b24</t>
+          <t>sub_402a04</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>sub_405900</t>
+          <t>sub_4033d8</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6168831168831169</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sub_404d54</t>
+          <t>sub_402bf4</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>sub_4040ff</t>
+          <t>sub_40639c</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E76" t="n">
         <v>0.8</v>
@@ -2026,40 +2026,40 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>sub_404e5c</t>
+          <t>sub_402c34</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>sub_4043ae</t>
+          <t>sub_4039cd</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8</v>
+        <v>0.7266666666666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sub_404e9c</t>
+          <t>sub_402c7c</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>sub_404793</t>
+          <t>sub_4054c3</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E78" t="n">
         <v>0.8</v>
@@ -2068,145 +2068,145 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>sub_404efc</t>
+          <t>sub_402c9c</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>sub_405917</t>
+          <t>sub_403a30</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8</v>
+        <v>0.6178737373737374</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>sub_405050</t>
+          <t>sub_402d2c</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>sub_405f70</t>
+          <t>sub_403ac2</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6219548872180451</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>sub_40521c</t>
+          <t>sub_405c30</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>sub_406160</t>
+          <t>sub_406a90</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6455661526868958</v>
+        <v>0.6247077922077923</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>sub_40551c</t>
+          <t>sub_402fc0</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>sub_40551c</t>
+          <t>sub_402a19</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8347826086956522</v>
+        <v>0.60875</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>sub_4058f4</t>
+          <t>sub_402ff0</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>12</v>
+        <v>356</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>sub_405948</t>
+          <t>sub_403cc0</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8</v>
+        <v>0.6592635679396244</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>sub_405a54</t>
+          <t>sub_405d48</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>sub_40573d</t>
+          <t>sub_406b50</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8</v>
+        <v>0.6803655603655605</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>sub_405b7c</t>
+          <t>sub_403224</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>sub_402a59</t>
+          <t>sub_4064c9</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E85" t="n">
         <v>0.8</v>
@@ -2215,95 +2215,851 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>sub_405c04</t>
+          <t>sub_4037fc</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>sub_405754</t>
+          <t>sub_405269</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8</v>
+        <v>0.6857142857142857</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sub_405c7c</t>
+          <t>sub_404248</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>8</v>
+        <v>436</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>sub_403bba</t>
+          <t>sub_404ff0</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>15</v>
+        <v>415</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8</v>
+        <v>0.5538391412073959</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sub_405cb4</t>
+          <t>sub_405340</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>sub_405775</t>
+          <t>sub_4061c0</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8</v>
+        <v>0.674074074074074</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sub_405e20</t>
+          <t>sub_4043fc</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>sub_405250</t>
+          <t>sub_405190</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5548387096774194</v>
+        <v>0.6925427350427351</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>sub_40448c</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>76</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>sub_405205</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>68</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.6743589743589744</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>sub_404490</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>72</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>sub_405210</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>57</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.6743589743589744</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>sub_4044d8</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>36</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>sub_4051f0</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>21</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.7250000000000001</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>sub_40453c</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>152</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>sub_4052b0</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>120</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.7103630952380953</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>sub_4045d4</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>252</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>sub_405351</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>200</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.6409832087104814</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>sub_4046d0</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>84</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>sub_4052ab</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>59</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.6386359672073958</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>sub_4046dc</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>172</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>sub_405430</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>147</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.6499225558514097</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>sub_404788</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>68</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>sub_4054f0</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>47</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.6317460317460317</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>sub_4047b0</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>32</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>sub_405419</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>21</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>sub_4047bc</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>36</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>sub_40566d</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>19</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.7333333333333334</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>sub_4048c8</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>76</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>sub_402a69</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>93</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.6861111111111111</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>sub_4049a4</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>12</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>sub_4054e7</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>25</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>sub_404b10</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>28</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>sub_4058fb</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>28</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>sub_404b74</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>40</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>sub_405680</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>52</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.6529166666666667</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>sub_404d54</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>24</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>sub_4040ff</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>4</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>sub_404e5c</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>24</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>sub_4043ae</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>5</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>sub_404e9c</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>24</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>sub_404793</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>12</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>sub_404edc</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>76</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>sub_405de0</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>68</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.6261904761904763</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>sub_404efc</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>12</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>sub_405775</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>25</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>sub_405050</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>152</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>sub_405f70</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>143</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.5816267942583733</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>sub_405108</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>60</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>sub_406020</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>50</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.5626623376623376</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>sub_405180</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>60</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>sub_4060a0</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>50</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.5631515151515152</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>sub_4051a8</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>132</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>sub_4060d0</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>135</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.5633761968737339</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>sub_40521c</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>108</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>sub_406160</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>88</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.593948717948718</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>sub_4052a4</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>56</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>sub_4061e0</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>50</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.5655218855218855</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>sub_4054b4</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>28</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>sub_4051e5</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>32</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.6466666666666667</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>sub_4054ec</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>12</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>sub_402a55</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>4</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.7200000000000001</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>sub_405520</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1228</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>sub_4063e0</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1183</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.5804268882746613</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>sub_4058f4</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>12</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>sub_405754</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>33</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>sub_405a98</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>100</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>sub_406930</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>75</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.6116161616161617</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>sub_405a54</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>12</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>sub_40573d</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>23</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>sub_405a84</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>16</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>sub_406918</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>18</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>sub_405b1c</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>16</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>sub_402e5a</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>16</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.6708333333333334</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>sub_405b7c</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>76</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>sub_4069f3</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>72</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.6513257575757576</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>sub_405c04</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>12</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>sub_405948</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>31</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>sub_405cb4</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>8</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>sub_4058c8</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>24</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
           <t>finalScore</t>
         </is>
       </c>
-      <c r="B90" t="n">
-        <v>0.6227743939033652</v>
+      <c r="B126" t="n">
+        <v>0.6023670790132437</v>
       </c>
     </row>
   </sheetData>
